--- a/testData/linux_resource_test_data.xlsx
+++ b/testData/linux_resource_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="add_linux_resource" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="164">
   <si>
     <t>测试点说明</t>
   </si>
@@ -1164,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection sqref="A1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1798,7 +1798,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1974,10 +1974,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1993,9 +1993,10 @@
     <col min="9" max="9" width="13.25" customWidth="1"/>
     <col min="10" max="10" width="11.625" customWidth="1"/>
     <col min="16" max="16" width="22.5" customWidth="1"/>
+    <col min="17" max="17" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
+    <row r="1" spans="1:17" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2014,11 +2015,41 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.25">
+      <c r="Q1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="14.25">
       <c r="A2" s="9" t="s">
         <v>49</v>
       </c>
@@ -2037,7 +2068,37 @@
       <c r="F2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2144,8 +2205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2831,8 +2892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/testData/linux_resource_test_data.xlsx
+++ b/testData/linux_resource_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="add_linux_resource" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="163">
   <si>
     <t>测试点说明</t>
   </si>
@@ -666,10 +666,6 @@
   </si>
   <si>
     <t>名称不能大于32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>lzy</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1164,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection sqref="A1:P2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1246,7 +1242,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>18</v>
@@ -1702,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1798,7 +1794,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1976,7 +1972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2205,7 +2201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -2636,7 +2632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -2920,7 +2916,7 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>34</v>

--- a/testData/linux_resource_test_data.xlsx
+++ b/testData/linux_resource_test_data.xlsx
@@ -4,27 +4,27 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="add_linux_resource" sheetId="5" r:id="rId1"/>
-    <sheet name="query_resource" sheetId="12" r:id="rId2"/>
-    <sheet name="edit_linux_resource" sheetId="6" r:id="rId3"/>
+    <sheet name="edit_linux_resource" sheetId="6" r:id="rId2"/>
+    <sheet name="query_resource" sheetId="12" r:id="rId3"/>
     <sheet name="del_resource" sheetId="9" r:id="rId4"/>
     <sheet name="bulkdel_resource" sheetId="13" r:id="rId5"/>
     <sheet name="check_linux_resource" sheetId="10" r:id="rId6"/>
-    <sheet name="add_resource_account" sheetId="14" r:id="rId7"/>
-    <sheet name="del_resource_account" sheetId="16" r:id="rId8"/>
-    <sheet name="bulkdel_resource_account" sheetId="17" r:id="rId9"/>
-    <sheet name="check_resource_account" sheetId="18" r:id="rId10"/>
-    <sheet name="query_resource_account" sheetId="19" r:id="rId11"/>
+    <sheet name="add_linux_account" sheetId="14" r:id="rId7"/>
+    <sheet name="del_linux_account" sheetId="16" r:id="rId8"/>
+    <sheet name="bulkdel_linux_account" sheetId="17" r:id="rId9"/>
+    <sheet name="check_linux_account" sheetId="18" r:id="rId10"/>
+    <sheet name="query_linux_account" sheetId="19" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="166">
   <si>
     <t>测试点说明</t>
   </si>
@@ -155,10 +155,6 @@
   </si>
   <si>
     <t>你确定要删除该选项吗？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除Linux资源(172.16.10.215_-)资源</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -306,10 +302,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>RedHat资源(172.16.10.30_-)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>资源名称格式不合法</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -670,6 +662,26 @@
   </si>
   <si>
     <t>全选删除所有资源账号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>H3C</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除H3C资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedHat资源(172.16.10.15_-)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除RedHat资源(172.16.10.15_-)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1186,13 +1198,13 @@
         <v>7</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>9</v>
@@ -1227,7 +1239,7 @@
     </row>
     <row r="2" spans="1:16" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
@@ -1236,7 +1248,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>6</v>
@@ -1286,7 +1298,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>26</v>
@@ -1327,19 +1339,19 @@
     </row>
     <row r="4" spans="1:16" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>27</v>
@@ -1440,7 +1452,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1462,19 +1474,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -1482,16 +1494,16 @@
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>27</v>
@@ -1508,45 +1520,45 @@
     </row>
     <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>144</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -1555,102 +1567,102 @@
         <v>27</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
       <c r="A8" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -1659,21 +1671,21 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="C9" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E9" s="5">
         <v>1.23456789012345E+32</v>
@@ -1685,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1698,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1715,13 +1727,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -1729,7 +1741,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>25</v>
@@ -1739,12 +1751,12 @@
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="5"/>
@@ -1752,12 +1764,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="8"/>
@@ -1765,22 +1777,22 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1791,189 +1803,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="44.75" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="30.5" customWidth="1"/>
-    <col min="7" max="7" width="34" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25">
-      <c r="A6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.25">
-      <c r="A7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25">
-      <c r="A8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25">
-      <c r="A9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2047,19 +1880,19 @@
     </row>
     <row r="2" spans="1:17" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>32</v>
@@ -2104,12 +1937,191 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="44.75" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.25">
+      <c r="A2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25">
+      <c r="A3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25">
+      <c r="A4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25">
+      <c r="A5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25">
+      <c r="A6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25">
+      <c r="A7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25">
+      <c r="A8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25">
+      <c r="A9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2136,15 +2148,29 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2159,7 +2185,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2182,13 +2208,13 @@
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2201,8 +2227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2225,16 +2251,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>22</v>
@@ -2248,20 +2274,20 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>27</v>
@@ -2270,25 +2296,25 @@
         <v>27</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>27</v>
@@ -2297,27 +2323,27 @@
         <v>27</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>27</v>
@@ -2326,27 +2352,27 @@
         <v>27</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="14">
         <v>1.23456789012345E+32</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>27</v>
@@ -2355,27 +2381,27 @@
         <v>27</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>27</v>
@@ -2384,27 +2410,27 @@
         <v>27</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>27</v>
@@ -2413,24 +2439,24 @@
         <v>27</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
       <c r="A8" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F8" s="7">
         <v>655555</v>
@@ -2442,50 +2468,50 @@
         <v>27</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>27</v>
@@ -2500,27 +2526,27 @@
         <v>27</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>27</v>
@@ -2529,27 +2555,27 @@
         <v>27</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
       <c r="A12" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>27</v>
@@ -2558,56 +2584,56 @@
         <v>27</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G14" s="5">
         <v>123</v>
@@ -2616,7 +2642,7 @@
         <v>321</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2633,7 +2659,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2655,22 +2681,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -2678,7 +2704,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
@@ -2690,7 +2716,7 @@
         <v>27</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>21</v>
@@ -2707,7 +2733,7 @@
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>16</v>
@@ -2719,7 +2745,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>27</v>
@@ -2731,12 +2757,12 @@
         <v>21</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
@@ -2748,7 +2774,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>17</v>
@@ -2760,12 +2786,12 @@
         <v>27</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>16</v>
@@ -2777,10 +2803,10 @@
         <v>27</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G5" s="5">
         <v>123</v>
@@ -2789,12 +2815,12 @@
         <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>16</v>
@@ -2803,13 +2829,13 @@
         <v>27</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G6" s="5">
         <v>456</v>
@@ -2818,7 +2844,7 @@
         <v>456</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2832,7 +2858,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2852,10 +2878,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -2863,7 +2889,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>34</v>
@@ -2889,7 +2915,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2908,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
@@ -2916,7 +2942,7 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>34</v>
@@ -2925,7 +2951,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/testData/linux_resource_test_data.xlsx
+++ b/testData/linux_resource_test_data.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="add_linux_resource" sheetId="5" r:id="rId1"/>
     <sheet name="edit_linux_resource" sheetId="6" r:id="rId2"/>
-    <sheet name="query_resource" sheetId="12" r:id="rId3"/>
-    <sheet name="del_resource" sheetId="9" r:id="rId4"/>
+    <sheet name="query_linux_resource" sheetId="12" r:id="rId3"/>
+    <sheet name="del_linux_resource" sheetId="9" r:id="rId4"/>
     <sheet name="bulkdel_resource" sheetId="13" r:id="rId5"/>
     <sheet name="check_linux_resource" sheetId="10" r:id="rId6"/>
     <sheet name="add_linux_account" sheetId="14" r:id="rId7"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="163">
   <si>
     <t>测试点说明</t>
   </si>
@@ -247,10 +247,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>查询RedHat类型名称包含123资源</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>资源名称</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -263,10 +259,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>查询资源名称为RedHat123资源</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>资源类型1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -290,47 +282,241 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>172.16.10.30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名称格式不合法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>!@#</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名称不能大于32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名称超过32位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名称含有非法字符</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名称为空</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【IP】不能为空</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP为空</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debian</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP格式不合法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP地址输入不正确，请重新输入!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不勾选运维协议</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少选择一种运维协议！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议端口不合法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议端口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维协议</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议端口号为空</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提权账号口令不能为空！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填写提权口令</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提权账号口令，口令确认输入不一致！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>该名称的资源已经存在</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提权口令和确认口令填写不相同</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源IP冲突</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名称重复</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源IP重复</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名称和IP重复</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>no</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络设备</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_checkout_003</t>
   </si>
   <si>
     <t>172.16.10.30</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>资源名称格式不合法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>!@#</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源名称不能大于32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源名称超过32位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源名称含有非法字符</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源名称为空</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>【IP】不能为空</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP为空</t>
+    <t>Ssh1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.39</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.257</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ssh2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口输入错误!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debian1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSH1端口不能为空！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.36</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debian3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>要账号管理的资源名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>要编辑的资源账号名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameAndpass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑方式的value值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源账号名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号口令</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认口令</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>no_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_modLinux_003</t>
+  </si>
+  <si>
+    <t>test_F04_S03_modLinux_004</t>
+  </si>
+  <si>
+    <t>test_F04_S03_modLinux_005</t>
+  </si>
+  <si>
+    <t>test_F04_S03_modLinux_006</t>
+  </si>
+  <si>
+    <t>no_pass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单点登录不代填名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ls</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单点登录代填名称和口令root账号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单点登录不代填口令cyy账号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单点登录代填名称和口令ls账号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑ls账号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jk</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -338,261 +524,59 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>IP格式不合法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP地址输入不正确，请重新输入!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>不勾选运维协议</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>至少选择一种运维协议！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>协议端口不合法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>协议端口</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>运维协议</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>协议端口号为空</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>提权账号口令不能为空！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>不填写提权口令</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>提权账号口令，口令确认输入不一致！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>该名称的资源已经存在</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>提权口令和确认口令填写不相同</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源IP冲突</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源名称重复</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源IP重复</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源名称和IP重复</t>
+    <t>要删除的资源账号名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除root资源账号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否授权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询已授权的资源账号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询未授权的资源账号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询名称为cyy并且未授权的资源账号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单点登录代填用户名和密码，不填写名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称不能为空</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单点登录代填用户名和密码,不填写密码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令不能为空</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F04_S03_checkout_003</t>
-  </si>
-  <si>
-    <t>172.16.10.30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ssh1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.39</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.257</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ssh2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>端口输入错误!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Debian1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSH1端口不能为空！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.36</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Debian3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>要账号管理的资源名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>要编辑的资源账号名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>nameAndpass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑方式的value值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源账号名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号口令</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认口令</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>no_name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F04_S03_modLinux_003</t>
-  </si>
-  <si>
-    <t>test_F04_S03_modLinux_004</t>
-  </si>
-  <si>
-    <t>test_F04_S03_modLinux_005</t>
-  </si>
-  <si>
-    <t>test_F04_S03_modLinux_006</t>
-  </si>
-  <si>
-    <t>no_pass</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单点登录不代填名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ls</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单点登录代填名称和口令root账号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单点登录不代填口令cyy账号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单点登录代填名称和口令ls账号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑ls账号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>jk</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Debian</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>要删除的资源账号名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除root资源账号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否授权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询已授权的资源账号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询未授权的资源账号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询名称为cyy并且未授权的资源账号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cyy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单点登录代填用户名和密码，不填写名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称不能为空</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单点登录代填用户名和密码,不填写密码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>口令不能为空</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>aa</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -665,14 +649,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>H3C</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除H3C资源</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>RedHat资源(172.16.10.15_-)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -682,6 +658,18 @@
   </si>
   <si>
     <t>删除RedHat资源(172.16.10.15_-)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询资源名称为RedHat资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询RedHat类型名称包含RedHat资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedHat</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -701,6 +689,7 @@
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -709,6 +698,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -716,6 +706,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -724,11 +715,13 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1198,13 +1191,13 @@
         <v>7</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>9</v>
@@ -1298,7 +1291,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>26</v>
@@ -1351,7 +1344,7 @@
         <v>44</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>27</v>
@@ -1474,19 +1467,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -1494,16 +1487,16 @@
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>27</v>
@@ -1520,45 +1513,45 @@
     </row>
     <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -1567,102 +1560,102 @@
         <v>27</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
       <c r="A8" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -1671,21 +1664,21 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E9" s="5">
         <v>1.23456789012345E+32</v>
@@ -1697,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1727,13 +1720,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -1741,7 +1734,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>25</v>
@@ -1756,7 +1749,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="5"/>
@@ -1769,7 +1762,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="8"/>
@@ -1782,11 +1775,11 @@
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -1806,7 +1799,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1888,11 +1881,11 @@
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>163</v>
+      <c r="D2" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>32</v>
@@ -1941,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1964,13 +1957,13 @@
         <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -2015,10 +2008,10 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>44</v>
@@ -2030,14 +2023,14 @@
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>38</v>
@@ -2090,20 +2083,20 @@
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="10" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="E9" s="10" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>38</v>
@@ -2118,10 +2111,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2148,29 +2141,15 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2227,8 +2206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2251,16 +2230,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>22</v>
@@ -2274,20 +2253,20 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>27</v>
@@ -2296,25 +2275,25 @@
         <v>27</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>27</v>
@@ -2323,27 +2302,27 @@
         <v>27</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>27</v>
@@ -2352,27 +2331,27 @@
         <v>27</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C5" s="14">
         <v>1.23456789012345E+32</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>27</v>
@@ -2381,27 +2360,27 @@
         <v>27</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>27</v>
@@ -2410,27 +2389,27 @@
         <v>27</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>27</v>
@@ -2439,24 +2418,24 @@
         <v>27</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
       <c r="A8" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F8" s="7">
         <v>655555</v>
@@ -2468,27 +2447,27 @@
         <v>27</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>27</v>
@@ -2497,21 +2476,21 @@
         <v>27</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>27</v>
@@ -2526,56 +2505,56 @@
         <v>27</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
       <c r="A12" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>27</v>
@@ -2584,27 +2563,27 @@
         <v>27</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>27</v>
@@ -2613,27 +2592,27 @@
         <v>27</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G14" s="5">
         <v>123</v>
@@ -2642,7 +2621,7 @@
         <v>321</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2681,22 +2660,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -2704,7 +2683,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
@@ -2716,7 +2695,7 @@
         <v>27</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>21</v>
@@ -2733,7 +2712,7 @@
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>16</v>
@@ -2745,7 +2724,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>27</v>
@@ -2757,12 +2736,12 @@
         <v>21</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
@@ -2774,7 +2753,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>17</v>
@@ -2786,12 +2765,12 @@
         <v>27</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>16</v>
@@ -2803,10 +2782,10 @@
         <v>27</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G5" s="5">
         <v>123</v>
@@ -2815,12 +2794,12 @@
         <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>16</v>
@@ -2829,13 +2808,13 @@
         <v>27</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G6" s="5">
         <v>456</v>
@@ -2844,7 +2823,7 @@
         <v>456</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2878,10 +2857,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -2889,7 +2868,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>34</v>
@@ -2934,7 +2913,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
@@ -2942,7 +2921,7 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>34</v>

--- a/testData/linux_resource_test_data.xlsx
+++ b/testData/linux_resource_test_data.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="add_linux_resource" sheetId="5" r:id="rId1"/>
     <sheet name="edit_linux_resource" sheetId="6" r:id="rId2"/>
     <sheet name="query_linux_resource" sheetId="12" r:id="rId3"/>
-    <sheet name="del_linux_resource" sheetId="9" r:id="rId4"/>
-    <sheet name="bulkdel_resource" sheetId="13" r:id="rId5"/>
-    <sheet name="check_linux_resource" sheetId="10" r:id="rId6"/>
+    <sheet name="check_linux_resource" sheetId="10" r:id="rId4"/>
+    <sheet name="del_linux_resource" sheetId="9" r:id="rId5"/>
+    <sheet name="bulkdel_resource" sheetId="13" r:id="rId6"/>
     <sheet name="add_linux_account" sheetId="14" r:id="rId7"/>
     <sheet name="del_linux_account" sheetId="16" r:id="rId8"/>
     <sheet name="bulkdel_linux_account" sheetId="17" r:id="rId9"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="161">
   <si>
     <t>测试点说明</t>
   </si>
@@ -138,10 +138,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_modLinux_002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>要编辑的资源名称</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -150,27 +146,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_del_005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>你确定要删除该选项吗？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_bulkDel_006</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>全选删除所有资源</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>部门</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F04_S03_query_003</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -259,18 +243,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>资源类型1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源类型2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源类型3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>服务器及设备</t>
   </si>
   <si>
@@ -397,9 +369,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_checkout_003</t>
-  </si>
-  <si>
     <t>172.16.10.30</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -476,18 +445,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_modLinux_003</t>
-  </si>
-  <si>
-    <t>test_F04_S03_modLinux_004</t>
-  </si>
-  <si>
-    <t>test_F04_S03_modLinux_005</t>
-  </si>
-  <si>
-    <t>test_F04_S03_modLinux_006</t>
-  </si>
-  <si>
     <t>no_pass</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -604,15 +561,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_modLinux_007</t>
-  </si>
-  <si>
-    <t>test_F04_S03_modLinux_008</t>
-  </si>
-  <si>
-    <t>test_F04_S03_modLinux_009</t>
-  </si>
-  <si>
     <t>密码长度超过64位</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -670,6 +618,58 @@
   </si>
   <si>
     <t>RedHat</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源一级类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源二级类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源三级类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_modLinuxRes_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_queryLinuxRes_003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_delLinuxRes_005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_bulkDelLinuxRes_006</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_checkoutLinuxRes_004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_addLinuxResAccount_007</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_delLinuxResAccount_008</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_bulkDelLinuxResAccount_009</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_checkoutLinuxResAccount_010</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_queryLinuxResAccount_011</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1163,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1174,7 +1174,7 @@
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="32.625" customWidth="1"/>
     <col min="5" max="6" width="17.25" customWidth="1"/>
     <col min="7" max="15" width="32.375" customWidth="1"/>
     <col min="16" max="16" width="42.375" customWidth="1"/>
@@ -1191,13 +1191,13 @@
         <v>7</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>9</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="2" spans="1:16" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
@@ -1241,7 +1241,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>6</v>
@@ -1291,7 +1291,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>26</v>
@@ -1332,19 +1332,19 @@
     </row>
     <row r="4" spans="1:16" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>27</v>
@@ -1379,60 +1379,6 @@
       <c r="P4" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="14.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" ht="14.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="1:16" ht="14.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1444,19 +1390,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="38.625" customWidth="1"/>
     <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.125" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="8" max="8" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
@@ -1467,19 +1414,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -1487,16 +1434,16 @@
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>27</v>
@@ -1508,50 +1455,50 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>30</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -1560,102 +1507,102 @@
         <v>27</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="9" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
       <c r="A8" s="9" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -1664,21 +1611,21 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="9" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E9" s="5">
         <v>1.23456789012345E+32</v>
@@ -1690,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1703,16 +1650,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="39.375" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="2" max="2" width="41.875" customWidth="1"/>
     <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
@@ -1720,13 +1668,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -1734,7 +1682,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>25</v>
@@ -1744,12 +1692,12 @@
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="7" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="5"/>
@@ -1757,12 +1705,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="8"/>
@@ -1770,22 +1718,22 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1796,29 +1744,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.125" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="30.25" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
     <col min="4" max="4" width="27.375" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="39.125" customWidth="1"/>
     <col min="8" max="8" width="13.875" customWidth="1"/>
     <col min="9" max="9" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="22.5" customWidth="1"/>
-    <col min="17" max="17" width="28.375" customWidth="1"/>
+    <col min="10" max="10" width="17.75" customWidth="1"/>
+    <col min="11" max="11" width="15.375" customWidth="1"/>
+    <col min="12" max="12" width="15.875" customWidth="1"/>
+    <col min="13" max="13" width="19.125" customWidth="1"/>
+    <col min="14" max="14" width="21.25" customWidth="1"/>
+    <col min="15" max="15" width="25" customWidth="1"/>
+    <col min="16" max="16" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75">
+    <row r="1" spans="1:16" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1826,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1867,28 +1819,25 @@
       <c r="P1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="14.25">
+    </row>
+    <row r="2" spans="1:16" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>27</v>
@@ -1917,11 +1866,8 @@
       <c r="O2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>30</v>
+      <c r="P2" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1934,17 +1880,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="44.75" customWidth="1"/>
+    <col min="1" max="1" width="39.375" customWidth="1"/>
     <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="34" customWidth="1"/>
   </cols>
@@ -1954,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -1974,132 +1920,132 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="7" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="7" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="10" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2111,103 +2057,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="29.875" customWidth="1"/>
-    <col min="2" max="2" width="25.875" customWidth="1"/>
-    <col min="3" max="3" width="27.875" customWidth="1"/>
-    <col min="4" max="4" width="33.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25">
-      <c r="A2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="26.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2219,7 +2072,7 @@
     <col min="5" max="5" width="13.875" customWidth="1"/>
     <col min="6" max="7" width="10.5" customWidth="1"/>
     <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="28.25" customWidth="1"/>
+    <col min="9" max="9" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
@@ -2230,16 +2083,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>22</v>
@@ -2253,20 +2106,20 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>27</v>
@@ -2275,25 +2128,25 @@
         <v>27</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>27</v>
@@ -2302,27 +2155,27 @@
         <v>27</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>27</v>
@@ -2331,27 +2184,27 @@
         <v>27</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C5" s="14">
         <v>1.23456789012345E+32</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>27</v>
@@ -2360,27 +2213,27 @@
         <v>27</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>27</v>
@@ -2389,27 +2242,27 @@
         <v>27</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>27</v>
@@ -2418,24 +2271,24 @@
         <v>27</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
       <c r="A8" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F8" s="7">
         <v>655555</v>
@@ -2447,27 +2300,27 @@
         <v>27</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>27</v>
@@ -2476,21 +2329,21 @@
         <v>27</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>27</v>
@@ -2505,27 +2358,27 @@
         <v>27</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>27</v>
@@ -2534,27 +2387,27 @@
         <v>27</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
       <c r="A12" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>27</v>
@@ -2563,27 +2416,27 @@
         <v>27</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>27</v>
@@ -2592,27 +2445,27 @@
         <v>27</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="E14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="G14" s="5">
         <v>123</v>
@@ -2621,7 +2474,7 @@
         <v>321</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2633,12 +2486,105 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="31.25" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="27.875" customWidth="1"/>
+    <col min="4" max="4" width="33.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25">
+      <c r="A2" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="36.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25">
+      <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2649,7 +2595,7 @@
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="22.75" customWidth="1"/>
     <col min="6" max="8" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="32.625" customWidth="1"/>
+    <col min="9" max="9" width="38.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
@@ -2660,22 +2606,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -2683,7 +2629,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
@@ -2695,7 +2641,7 @@
         <v>27</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>21</v>
@@ -2707,12 +2653,12 @@
         <v>21</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>16</v>
@@ -2724,7 +2670,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>27</v>
@@ -2736,12 +2682,12 @@
         <v>21</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
@@ -2753,7 +2699,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>17</v>
@@ -2765,12 +2711,12 @@
         <v>27</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>16</v>
@@ -2782,10 +2728,10 @@
         <v>27</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="G5" s="5">
         <v>123</v>
@@ -2794,12 +2740,12 @@
         <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>16</v>
@@ -2808,13 +2754,13 @@
         <v>27</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G6" s="5">
         <v>456</v>
@@ -2823,7 +2769,7 @@
         <v>456</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2837,7 +2783,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2846,7 +2792,7 @@
     <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="3" max="3" width="27.375" customWidth="1"/>
     <col min="4" max="4" width="31.75" customWidth="1"/>
-    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="37.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
@@ -2857,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -2868,10 +2814,10 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>25</v>
@@ -2880,7 +2826,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2894,15 +2840,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
     <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="4" max="4" width="42.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
@@ -2913,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
@@ -2921,16 +2867,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/testData/linux_resource_test_data.xlsx
+++ b/testData/linux_resource_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="add_linux_resource" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="163">
   <si>
     <t>测试点说明</t>
   </si>
@@ -581,18 +581,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>名称长度大于32位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>查询资源账号名称为root</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>名称不能大于32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>全选删除所有资源账号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -670,6 +662,59 @@
   </si>
   <si>
     <t>test_F04_S03_queryLinuxResAccount_011</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oot</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678901234567890123456789012345678901234567890123456789012345Admin123</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称不能大于64</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>名称长度大于6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1390,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1455,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
@@ -1481,7 +1526,7 @@
         <v>126</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
@@ -1507,7 +1552,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
@@ -1533,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
@@ -1559,7 +1604,7 @@
         <v>131</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
@@ -1585,7 +1630,7 @@
         <v>134</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
@@ -1611,15 +1656,15 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
-      <c r="A9" s="9" t="s">
-        <v>138</v>
+      <c r="A9" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>27</v>
@@ -1627,8 +1672,8 @@
       <c r="D9" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="5">
-        <v>1.23456789012345E+32</v>
+      <c r="E9" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -1637,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1650,7 +1695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1682,7 +1727,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>25</v>
@@ -1692,7 +1737,7 @@
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
@@ -1705,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
@@ -1718,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
@@ -1733,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1831,10 +1876,10 @@
         <v>45</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>31</v>
@@ -1867,7 +1912,7 @@
         <v>27</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1903,13 +1948,13 @@
         <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -1930,7 +1975,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
@@ -1945,7 +1990,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
@@ -1964,22 +2009,22 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
@@ -1994,7 +2039,7 @@
         <v>48</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
@@ -2009,7 +2054,7 @@
         <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
@@ -2024,12 +2069,12 @@
         <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
@@ -2039,13 +2084,13 @@
         <v>55</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2128,7 +2173,7 @@
         <v>27</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
@@ -2155,7 +2200,7 @@
         <v>27</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
@@ -2184,7 +2229,7 @@
         <v>27</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
@@ -2213,7 +2258,7 @@
         <v>27</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
@@ -2242,7 +2287,7 @@
         <v>27</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
@@ -2271,7 +2316,7 @@
         <v>27</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
@@ -2300,7 +2345,7 @@
         <v>27</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
@@ -2329,7 +2374,7 @@
         <v>27</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
@@ -2358,7 +2403,7 @@
         <v>27</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
@@ -2372,7 +2417,7 @@
         <v>95</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>90</v>
@@ -2387,7 +2432,7 @@
         <v>27</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
@@ -2401,7 +2446,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>27</v>
@@ -2416,7 +2461,7 @@
         <v>27</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
@@ -2445,7 +2490,7 @@
         <v>27</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
@@ -2474,7 +2519,7 @@
         <v>321</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2518,16 +2563,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2570,7 +2615,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2583,8 +2628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2637,8 +2682,8 @@
       <c r="C2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>27</v>
+      <c r="D2" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>98</v>
@@ -2653,7 +2698,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
@@ -2682,7 +2727,7 @@
         <v>21</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
@@ -2711,7 +2756,7 @@
         <v>27</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
@@ -2740,7 +2785,7 @@
         <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
@@ -2769,7 +2814,7 @@
         <v>456</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2826,7 +2871,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2867,7 +2912,7 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>32</v>
@@ -2876,7 +2921,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/testData/linux_resource_test_data.xlsx
+++ b/testData/linux_resource_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="add_linux_resource" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="163">
   <si>
     <t>测试点说明</t>
   </si>
@@ -266,14 +266,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>资源名称不能大于32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源名称超过32位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>资源名称含有非法字符</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -679,10 +671,6 @@
       </rPr>
       <t>oot</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345678901234567890123456789012345678901234567890123456789012345Admin123</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -715,6 +703,42 @@
       </rPr>
       <t>位</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名称不能大于64</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>资源名称超过6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678901234567890123456789012345678901234567890123456789012345Admin123</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -902,10 +926,10 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1336,7 +1360,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>26</v>
@@ -1435,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1459,19 +1483,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -1479,16 +1503,16 @@
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>27</v>
@@ -1500,50 +1524,50 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -1552,102 +1576,102 @@
         <v>27</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
       <c r="A8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -1656,24 +1680,24 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -1682,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1713,13 +1737,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -1727,7 +1751,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>25</v>
@@ -1737,12 +1761,12 @@
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="5"/>
@@ -1750,12 +1774,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="8"/>
@@ -1763,22 +1787,22 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1876,10 +1900,10 @@
         <v>45</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>31</v>
@@ -1912,7 +1936,7 @@
         <v>27</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1948,13 +1972,13 @@
         <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -1975,7 +1999,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
@@ -1990,7 +2014,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
@@ -2009,22 +2033,22 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
@@ -2039,7 +2063,7 @@
         <v>48</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
@@ -2054,7 +2078,7 @@
         <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
@@ -2069,12 +2093,12 @@
         <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
@@ -2084,13 +2108,13 @@
         <v>55</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2104,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2134,10 +2158,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>22</v>
@@ -2151,20 +2175,20 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>84</v>
+      <c r="F2" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>27</v>
@@ -2173,25 +2197,25 @@
         <v>27</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>27</v>
@@ -2200,12 +2224,12 @@
         <v>27</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>57</v>
@@ -2214,13 +2238,13 @@
         <v>58</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>27</v>
@@ -2229,27 +2253,27 @@
         <v>27</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
-      <c r="A5" s="9" t="s">
-        <v>60</v>
+      <c r="A5" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="14">
-        <v>1.23456789012345E+32</v>
+        <v>160</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>27</v>
@@ -2258,27 +2282,27 @@
         <v>27</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>27</v>
@@ -2287,27 +2311,27 @@
         <v>27</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>27</v>
@@ -2316,24 +2340,24 @@
         <v>27</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
       <c r="A8" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F8" s="7">
         <v>655555</v>
@@ -2345,27 +2369,27 @@
         <v>27</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>27</v>
@@ -2374,21 +2398,21 @@
         <v>27</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>27</v>
@@ -2403,27 +2427,27 @@
         <v>27</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>27</v>
@@ -2432,27 +2456,27 @@
         <v>27</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
       <c r="A12" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>27</v>
@@ -2461,15 +2485,15 @@
         <v>27</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>25</v>
@@ -2481,7 +2505,7 @@
         <v>27</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>27</v>
@@ -2490,27 +2514,27 @@
         <v>27</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G14" s="5">
         <v>123</v>
@@ -2519,7 +2543,7 @@
         <v>321</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2563,16 +2587,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2615,7 +2639,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2651,22 +2675,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -2674,7 +2698,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
@@ -2683,10 +2707,10 @@
         <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>21</v>
@@ -2698,12 +2722,12 @@
         <v>21</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>16</v>
@@ -2715,7 +2739,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>27</v>
@@ -2727,12 +2751,12 @@
         <v>21</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
@@ -2744,7 +2768,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>17</v>
@@ -2756,12 +2780,12 @@
         <v>27</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>16</v>
@@ -2773,10 +2797,10 @@
         <v>27</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G5" s="5">
         <v>123</v>
@@ -2785,12 +2809,12 @@
         <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>16</v>
@@ -2799,13 +2823,13 @@
         <v>27</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G6" s="5">
         <v>456</v>
@@ -2814,7 +2838,7 @@
         <v>456</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2848,10 +2872,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -2859,7 +2883,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>32</v>
@@ -2871,7 +2895,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2904,7 +2928,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
@@ -2912,7 +2936,7 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>32</v>
@@ -2921,7 +2945,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/testData/linux_resource_test_data.xlsx
+++ b/testData/linux_resource_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="add_linux_resource" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="164">
   <si>
     <t>测试点说明</t>
   </si>
@@ -91,10 +91,6 @@
   </si>
   <si>
     <t>172.16.10.212</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -199,22 +195,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>添加RedHat123资源</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedHat123资源(172.16.10.211_-)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑RedHat123资源</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedHat123资源(172.16.10.211_-)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>查询Centos类型所有资源</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -581,15 +561,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>RedHat资源(172.16.10.15_-)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>172.16.10.15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除RedHat资源(172.16.10.15_-)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -739,6 +711,38 @@
   </si>
   <si>
     <t>12345678901234567890123456789012345678901234567890123456789012345Admin123</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除Debian</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除Centos</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedHat15资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedHat211资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加RedHat211资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑RedHat211资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除RedHat15资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyya</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1234,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1260,13 +1264,13 @@
         <v>7</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>9</v>
@@ -1290,18 +1294,18 @@
         <v>15</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.25">
-      <c r="A2" s="9" t="s">
-        <v>42</v>
+      <c r="A2" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
@@ -1309,14 +1313,14 @@
       <c r="C2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>43</v>
+      <c r="D2" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>18</v>
@@ -1325,128 +1329,128 @@
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="L2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>26</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1483,19 +1487,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -1503,19 +1507,19 @@
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="5">
         <v>1</v>
@@ -1524,154 +1528,154 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
       <c r="A8" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -1680,24 +1684,24 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -1706,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1719,9 +1723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1737,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -1751,22 +1753,22 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="5"/>
@@ -1774,12 +1776,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="8"/>
@@ -1787,22 +1789,22 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1815,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1847,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1880,63 +1882,63 @@
         <v>15</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.25">
-      <c r="A2" s="9" t="s">
-        <v>44</v>
+      <c r="A2" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>45</v>
+      <c r="C2" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1950,7 +1952,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1969,16 +1971,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -1989,132 +1991,132 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="10" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2128,7 +2130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -2152,22 +2154,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -2175,366 +2177,366 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
       <c r="A8" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F8" s="7">
         <v>655555</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="7">
         <v>22</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
       <c r="A12" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="G14" s="5">
         <v>123</v>
@@ -2543,7 +2545,7 @@
         <v>321</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2557,10 +2559,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2579,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
@@ -2587,16 +2589,44 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25">
+      <c r="A4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2633,13 +2663,13 @@
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2675,22 +2705,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -2698,109 +2728,109 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G5" s="5">
         <v>123</v>
@@ -2809,27 +2839,27 @@
         <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="G6" s="5">
         <v>456</v>
@@ -2838,7 +2868,7 @@
         <v>456</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2872,10 +2902,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -2883,19 +2913,19 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2928,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
@@ -2936,16 +2966,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/testData/linux_resource_test_data.xlsx
+++ b/testData/linux_resource_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="add_linux_resource" sheetId="5" r:id="rId1"/>
@@ -254,23 +254,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>【IP】不能为空</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP为空</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Debian</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>IP格式不合法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP地址输入不正确，请重新输入!</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -743,6 +731,18 @@
   </si>
   <si>
     <t>cyya</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【地址】不能为空</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【地址】为空</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址输入不正确，请重新输入!</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="2" spans="1:16" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
@@ -1314,7 +1314,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>6</v>
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>19</v>
@@ -1364,7 +1364,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>25</v>
@@ -1487,19 +1487,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -1507,16 +1507,16 @@
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>26</v>
@@ -1528,50 +1528,50 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -1580,102 +1580,102 @@
         <v>26</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
       <c r="A8" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -1684,24 +1684,24 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -1710,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1723,7 +1723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1739,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>24</v>
@@ -1763,12 +1763,12 @@
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="5"/>
@@ -1776,12 +1776,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="8"/>
@@ -1789,22 +1789,22 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1893,19 +1893,19 @@
     </row>
     <row r="2" spans="1:16" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>26</v>
@@ -1938,7 +1938,7 @@
         <v>26</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1974,13 +1974,13 @@
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -2001,7 +2001,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
@@ -2016,7 +2016,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
@@ -2035,22 +2035,22 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
@@ -2065,7 +2065,7 @@
         <v>43</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
@@ -2080,7 +2080,7 @@
         <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
@@ -2095,12 +2095,12 @@
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
@@ -2110,13 +2110,13 @@
         <v>50</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2130,8 +2130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2160,10 +2160,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>21</v>
@@ -2184,13 +2184,13 @@
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>26</v>
@@ -2199,25 +2199,25 @@
         <v>26</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>26</v>
@@ -2226,7 +2226,7 @@
         <v>26</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
@@ -2240,13 +2240,13 @@
         <v>53</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>26</v>
@@ -2255,27 +2255,27 @@
         <v>26</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>26</v>
@@ -2284,27 +2284,27 @@
         <v>26</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>26</v>
@@ -2313,27 +2313,27 @@
         <v>26</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>26</v>
@@ -2342,24 +2342,24 @@
         <v>26</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
       <c r="A8" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F8" s="7">
         <v>655555</v>
@@ -2371,27 +2371,27 @@
         <v>26</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>26</v>
@@ -2400,21 +2400,21 @@
         <v>26</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>26</v>
@@ -2429,27 +2429,27 @@
         <v>26</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>26</v>
@@ -2458,27 +2458,27 @@
         <v>26</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
       <c r="A12" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>26</v>
@@ -2487,15 +2487,15 @@
         <v>26</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>24</v>
@@ -2507,7 +2507,7 @@
         <v>26</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>26</v>
@@ -2516,27 +2516,27 @@
         <v>26</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G14" s="5">
         <v>123</v>
@@ -2545,7 +2545,7 @@
         <v>321</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2589,21 +2589,21 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>31</v>
@@ -2612,12 +2612,12 @@
         <v>24</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>31</v>
@@ -2626,7 +2626,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2669,7 +2669,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2705,22 +2705,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
@@ -2737,10 +2737,10 @@
         <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>20</v>
@@ -2752,12 +2752,12 @@
         <v>20</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>16</v>
@@ -2769,7 +2769,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>26</v>
@@ -2781,12 +2781,12 @@
         <v>20</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
@@ -2798,7 +2798,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>17</v>
@@ -2810,12 +2810,12 @@
         <v>26</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>16</v>
@@ -2827,10 +2827,10 @@
         <v>26</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G5" s="5">
         <v>123</v>
@@ -2839,12 +2839,12 @@
         <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>16</v>
@@ -2853,13 +2853,13 @@
         <v>26</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G6" s="5">
         <v>456</v>
@@ -2868,7 +2868,7 @@
         <v>456</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2902,10 +2902,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>31</v>
@@ -2925,7 +2925,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2958,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>31</v>
@@ -2975,7 +2975,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
